--- a/PFOA inhalation Rat/Data/PFOA_female_add-feces_Lupton_2020.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_female_add-feces_Lupton_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36B1680-1C57-4971-A435-B486052645FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1869D6-E703-4C11-BA73-CB5D1FD8D065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +507,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="1">
-        <v>0.13769999999999999</v>
+        <v>0.18970000000000001</v>
       </c>
       <c r="D4" s="1">
         <v>4.7E-2</v>
@@ -526,7 +526,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="1">
-        <v>0.1545</v>
+        <v>0.27139999999999997</v>
       </c>
       <c r="D5" s="1">
         <v>4.7E-2</v>
@@ -545,7 +545,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="1">
-        <v>0.1694</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="D6" s="1">
         <v>4.7E-2</v>
@@ -564,7 +564,7 @@
         <v>120</v>
       </c>
       <c r="C7" s="1">
-        <v>0.16549999999999998</v>
+        <v>0.43689999999999996</v>
       </c>
       <c r="D7" s="1">
         <v>4.7E-2</v>
@@ -583,7 +583,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="1">
-        <v>0.15360000000000001</v>
+        <v>0.51269999999999993</v>
       </c>
       <c r="D8" s="1">
         <v>4.7E-2</v>
@@ -602,7 +602,7 @@
         <v>168</v>
       </c>
       <c r="C9" s="1">
-        <v>0.14760000000000001</v>
+        <v>0.58449999999999991</v>
       </c>
       <c r="D9" s="1">
         <v>4.7E-2</v>
@@ -621,7 +621,7 @@
         <v>192</v>
       </c>
       <c r="C10" s="1">
-        <v>0.14660000000000001</v>
+        <v>0.65929999999999989</v>
       </c>
       <c r="D10" s="1">
         <v>4.7E-2</v>
@@ -640,7 +640,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="1">
-        <v>0.14860000000000001</v>
+        <v>0.73309999999999986</v>
       </c>
       <c r="D11" s="1">
         <v>4.7E-2</v>
@@ -659,7 +659,7 @@
         <v>240</v>
       </c>
       <c r="C12" s="1">
-        <v>0.16539999999999999</v>
+        <v>0.82469999999999988</v>
       </c>
       <c r="D12" s="1">
         <v>4.7E-2</v>
@@ -678,7 +678,7 @@
         <v>264</v>
       </c>
       <c r="C13" s="1">
-        <v>0.1714</v>
+        <v>0.90449999999999986</v>
       </c>
       <c r="D13" s="1">
         <v>4.7E-2</v>
@@ -697,7 +697,7 @@
         <v>288</v>
       </c>
       <c r="C14" s="1">
-        <v>0.16349999999999998</v>
+        <v>0.98819999999999986</v>
       </c>
       <c r="D14" s="1">
         <v>4.7E-2</v>
@@ -716,7 +716,7 @@
         <v>312</v>
       </c>
       <c r="C15" s="1">
-        <v>0.1694</v>
+        <v>1.0738999999999999</v>
       </c>
       <c r="D15" s="1">
         <v>4.7E-2</v>
@@ -735,7 +735,7 @@
         <v>336</v>
       </c>
       <c r="C16" s="1">
-        <v>0.1565</v>
+        <v>1.1446999999999998</v>
       </c>
       <c r="D16" s="1">
         <v>4.7E-2</v>
@@ -754,7 +754,7 @@
         <v>360</v>
       </c>
       <c r="C17" s="1">
-        <v>8.7099999999999997E-2</v>
+        <v>1.1609999999999998</v>
       </c>
       <c r="D17" s="1">
         <v>4.7E-2</v>
@@ -773,7 +773,7 @@
         <v>384</v>
       </c>
       <c r="C18" s="1">
-        <v>1.6299999999999999E-2</v>
+        <v>1.1609999999999998</v>
       </c>
       <c r="D18" s="1">
         <v>4.7E-2</v>

--- a/PFOA inhalation Rat/Data/PFOA_female_add-feces_Lupton_2020.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_female_add-feces_Lupton_2020.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsir\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1869D6-E703-4C11-BA73-CB5D1FD8D065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -427,11 +426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>0.1169</v>
+        <v>6.4899999999999999E-2</v>
       </c>
       <c r="D3" s="1">
         <v>4.7E-2</v>
@@ -507,7 +506,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="1">
-        <v>0.18970000000000001</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="D4" s="1">
         <v>4.7E-2</v>
@@ -526,7 +525,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="1">
-        <v>0.27139999999999997</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="D5" s="1">
         <v>4.7E-2</v>
@@ -545,7 +544,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="1">
-        <v>0.35909999999999997</v>
+        <v>8.77E-2</v>
       </c>
       <c r="D6" s="1">
         <v>4.7E-2</v>
@@ -564,7 +563,7 @@
         <v>120</v>
       </c>
       <c r="C7" s="1">
-        <v>0.43689999999999996</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="D7" s="1">
         <v>4.7E-2</v>
@@ -583,7 +582,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="1">
-        <v>0.51269999999999993</v>
+        <v>7.5800000000000006E-2</v>
       </c>
       <c r="D8" s="1">
         <v>4.7E-2</v>
@@ -602,7 +601,7 @@
         <v>168</v>
       </c>
       <c r="C9" s="1">
-        <v>0.58449999999999991</v>
+        <v>7.1800000000000003E-2</v>
       </c>
       <c r="D9" s="1">
         <v>4.7E-2</v>
@@ -621,7 +620,7 @@
         <v>192</v>
       </c>
       <c r="C10" s="1">
-        <v>0.65929999999999989</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="D10" s="1">
         <v>4.7E-2</v>
@@ -640,7 +639,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="1">
-        <v>0.73309999999999986</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="D11" s="1">
         <v>4.7E-2</v>
@@ -659,7 +658,7 @@
         <v>240</v>
       </c>
       <c r="C12" s="1">
-        <v>0.82469999999999988</v>
+        <v>9.1600000000000001E-2</v>
       </c>
       <c r="D12" s="1">
         <v>4.7E-2</v>
@@ -678,7 +677,7 @@
         <v>264</v>
       </c>
       <c r="C13" s="1">
-        <v>0.90449999999999986</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D13" s="1">
         <v>4.7E-2</v>
@@ -697,7 +696,7 @@
         <v>288</v>
       </c>
       <c r="C14" s="1">
-        <v>0.98819999999999986</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="D14" s="1">
         <v>4.7E-2</v>
@@ -716,7 +715,7 @@
         <v>312</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0738999999999999</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="D15" s="1">
         <v>4.7E-2</v>
@@ -735,7 +734,7 @@
         <v>336</v>
       </c>
       <c r="C16" s="1">
-        <v>1.1446999999999998</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="D16" s="1">
         <v>4.7E-2</v>
@@ -754,7 +753,7 @@
         <v>360</v>
       </c>
       <c r="C17" s="1">
-        <v>1.1609999999999998</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="D17" s="1">
         <v>4.7E-2</v>
@@ -772,8 +771,8 @@
       <c r="B18" s="1">
         <v>384</v>
       </c>
-      <c r="C18" s="1">
-        <v>1.1609999999999998</v>
+      <c r="C18" s="3">
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>4.7E-2</v>
